--- a/results/I3_N5_M2_T15_C100_DepCentral_s2_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1575.86794024191</v>
+        <v>1287.706724749107</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3420000076293945</v>
+        <v>0.2580001354217529</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.84647314566407</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.950234060606144</v>
+        <v>10.08257625195636</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.791701159296143</v>
+        <v>9.074935918213756</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1340.619999997556</v>
+        <v>954</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.56</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +634,61 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -733,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.664830805543681</v>
+        <v>6.958585032589914</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6.29375422704619</v>
       </c>
     </row>
     <row r="5">
@@ -939,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1004,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1141,7 +1196,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
@@ -1155,7 +1210,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
         <v>6</v>
@@ -1169,7 +1224,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
         <v>6</v>
@@ -1183,7 +1238,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
         <v>6</v>
@@ -1197,7 +1252,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
         <v>6</v>
@@ -1308,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.4199999998886</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>136.0749999998839</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>140.1849999997079</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>139.9549999999186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1352,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>141.319999999989</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4449999999724</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6749999999725</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7149999999244</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5349999999899</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1418,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36.22000000000583</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -1429,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>39.59000000000751</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>32.85500000000678</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>40.99000000000707</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.05</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>142.3900000000177</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>152.0800000000164</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>135.4250000000181</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
@@ -1506,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>151.0400000000175</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
@@ -1517,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>148.7250000000169</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>197.654999999814</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1539,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>180.4249999998082</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1550,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>184.7099999995096</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>185.739999999874</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>192.1199999999471</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>197.6549999997609</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>180.4249999997518</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -1605,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>184.709999999346</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>185.7399999998615</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>192.1199999999344</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -1638,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>142.3900000000295</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1649,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>152.0800000000254</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>135.4250000000291</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>151.0400000000266</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -1682,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>148.7250000000281</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>97.65499999975975</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -1740,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>80.42499999975064</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>84.70999999934486</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1762,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>85.73999999986029</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>92.11999999993327</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>42.39000000002761</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>52.08000000002346</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>35.42500000002713</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.04000000002463</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1828,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.72500000002617</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2343,61 +2398,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
